--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D987C36-F6D6-D042-8264-2A606875FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF9C74-6255-E142-8D5C-941A82703541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
-  <si>
-    <t>recodedName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>includePrediction</t>
   </si>
@@ -43,24 +40,12 @@
     <t>yes</t>
   </si>
   <si>
-    <t>labelUKBB_raw</t>
-  </si>
-  <si>
-    <t>labelUKBB_recoded</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>include</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>needRecoding</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -91,9 +76,6 @@
     <t>overallhealth</t>
   </si>
   <si>
-    <t>binary</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
@@ -148,10 +130,52 @@
     <t>bmi_cat</t>
   </si>
   <si>
-    <t>categorizeVar</t>
-  </si>
-  <si>
     <t>Education (age)</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>removeNegative</t>
+  </si>
+  <si>
+    <t>recodeEdu</t>
+  </si>
+  <si>
+    <t>education_degree</t>
+  </si>
+  <si>
+    <t>Education (degree)</t>
+  </si>
+  <si>
+    <t>recodeAlc</t>
+  </si>
+  <si>
+    <t>recodeSmoke</t>
+  </si>
+  <si>
+    <t>recodeIncome</t>
+  </si>
+  <si>
+    <t>recodeEmployment</t>
+  </si>
+  <si>
+    <t>recodeBMI</t>
+  </si>
+  <si>
+    <t>recodeHealth</t>
+  </si>
+  <si>
+    <t>recodeUrban</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>recodeSex</t>
   </si>
 </sst>
 </file>
@@ -168,16 +192,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Menlo"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Menlo"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,10 +227,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,466 +545,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE960A-EF56-1C47-9A5B-3AA4C74A2EF6}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>21003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>845</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1558</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>20116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>738</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>709</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>6142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21002</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>21003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>845</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>20116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>738</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>709</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2178</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20118</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>21002</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I20">
-    <sortCondition ref="G1:G20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D21">
+    <sortCondition ref="D1:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF9C74-6255-E142-8D5C-941A82703541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FF873-55BB-D34A-BD54-44B146268AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>includePrediction</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>assessment_center</t>
+  </si>
+  <si>
+    <t>UK Biobank assessment centre</t>
+  </si>
+  <si>
+    <t>ethnic_background</t>
+  </si>
+  <si>
+    <t>Ethnic background</t>
   </si>
   <si>
     <t>Income</t>
@@ -182,13 +194,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -224,13 +242,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE960A-EF56-1C47-9A5B-3AA4C74A2EF6}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,19 +581,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,13 +604,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -600,13 +621,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,115 +638,115 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6138</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
+      <c r="A5" s="2">
+        <v>1558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1558</v>
+        <v>20116</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>20116</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>709</v>
+        <v>6142</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>6142</v>
+      <c r="A10" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -733,115 +754,146 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
+      <c r="A12" s="2">
+        <v>2178</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2178</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="A14">
+        <v>20118</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20118</v>
+        <v>21002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21002</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>21000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6138</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D21">
-    <sortCondition ref="D1:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D20">
+    <sortCondition ref="D1:D20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FF873-55BB-D34A-BD54-44B146268AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF844248-C3C7-5145-B3EE-F85D8E08A90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE960A-EF56-1C47-9A5B-3AA4C74A2EF6}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,17 +835,31 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16"/>
+      <c r="A16" s="3">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>54</v>
+      <c r="A17" s="2">
+        <v>21000</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -855,14 +869,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>21000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+      <c r="A18">
+        <v>6138</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -871,29 +885,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6138</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D20">
-    <sortCondition ref="D1:D20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D18">
+    <sortCondition ref="D1:D18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF844248-C3C7-5145-B3EE-F85D8E08A90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBF14D-124C-2040-86A6-CB7562A3899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,8 +847,8 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -864,8 +864,8 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
+      <c r="E17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -881,8 +881,8 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
+      <c r="E18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBF14D-124C-2040-86A6-CB7562A3899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1E5B2-6950-AE45-AFE7-48C41C15A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>includePrediction</t>
   </si>
@@ -79,6 +79,12 @@
     <t>height</t>
   </si>
   <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
     <t>assessment_center</t>
   </si>
   <si>
@@ -188,16 +194,26 @@
   </si>
   <si>
     <t>recodeSex</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,16 +258,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,323 +583,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE960A-EF56-1C47-9A5B-3AA4C74A2EF6}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>21003</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>845</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1558</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>20116</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>738</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>709</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6142</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>2178</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20118</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21002</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>21000</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6138</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1E5B2-6950-AE45-AFE7-48C41C15A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37241B94-EC32-354E-BA89-0ADF48B3075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>includePrediction</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>bin</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +636,7 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37241B94-EC32-354E-BA89-0ADF48B3075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A0BA9-8F28-8549-8660-9EBC9090C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>includePrediction</t>
   </si>
@@ -200,13 +200,16 @@
   </si>
   <si>
     <t>bin</t>
+  </si>
+  <si>
+    <t>recodeHouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +243,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +281,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +599,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,8 +762,8 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A0BA9-8F28-8549-8660-9EBC9090C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6BBC8-0E6D-A248-B474-CFC29B25A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="-17020" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
+    <workbookView xWindow="100" yWindow="-28300" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>includePrediction</t>
   </si>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,8 +790,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
+      <c r="A10">
+        <v>21001</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>

--- a/data/obtainWeights.xlsx
+++ b/data/obtainWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Library/CloudStorage/Dropbox/githubProjects/TabeaSchoeler/TS2021_UKBBweighting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6BBC8-0E6D-A248-B474-CFC29B25A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B85BB53-3A73-4C49-B0CA-D12929E7016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-28300" windowWidth="28800" windowHeight="16120" xr2:uid="{59F1A796-753F-0C48-8E3D-A982516F8426}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>includePrediction</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>recodeHouse</t>
+  </si>
+  <si>
+    <t>recodeBMIcon</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,8 +793,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>21001</v>
+      <c r="A10" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -802,8 +805,8 @@
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
+      <c r="E10" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
